--- a/data/demo/urdm_demo.xlsx
+++ b/data/demo/urdm_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/rd-datamodel/data/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255E17C2-49C4-814C-9626-51F36DF00BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B50B5D7-82B0-9847-9A2F-E38D6F0D57CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="urdm_lookups_organization" sheetId="9" r:id="rId1"/>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="330">
   <si>
     <t>ancestry</t>
   </si>
   <si>
-    <t>Netherlands (the)</t>
-  </si>
-  <si>
     <t>WGSfirst</t>
   </si>
   <si>
@@ -1023,6 +1020,15 @@
   </si>
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Dr T. EST</t>
+  </si>
+  <si>
+    <t>Study Completed</t>
   </si>
 </sst>
 </file>
@@ -1413,33 +1419,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
         <v>310</v>
       </c>
-      <c r="B1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>311</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>312</v>
-      </c>
-      <c r="E1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s">
         <v>314</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>315</v>
-      </c>
-      <c r="E2" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1464,51 +1470,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" t="s">
         <v>317</v>
       </c>
-      <c r="B1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>318</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>319</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>320</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>321</v>
-      </c>
-      <c r="H1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
         <v>323</v>
-      </c>
-      <c r="B2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" t="s">
-        <v>324</v>
       </c>
       <c r="D2" s="3">
         <v>44511</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1527,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1544,922 +1550,922 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>163</v>
-      </c>
-      <c r="E1" t="s">
-        <v>164</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
         <v>165</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>166</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>167</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>168</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>169</v>
       </c>
-      <c r="L1" t="s">
-        <v>170</v>
-      </c>
       <c r="M1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" t="s">
         <v>308</v>
       </c>
-      <c r="K2" t="s">
-        <v>309</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" t="s">
         <v>308</v>
       </c>
-      <c r="K3" t="s">
-        <v>309</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" t="s">
         <v>308</v>
       </c>
-      <c r="K4" t="s">
-        <v>309</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I5" t="s">
+        <v>307</v>
+      </c>
+      <c r="K5" t="s">
         <v>308</v>
       </c>
-      <c r="K5" t="s">
-        <v>309</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" t="s">
         <v>308</v>
       </c>
-      <c r="K6" t="s">
-        <v>309</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" t="s">
         <v>308</v>
       </c>
-      <c r="K7" t="s">
-        <v>309</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I8" t="s">
+        <v>307</v>
+      </c>
+      <c r="K8" t="s">
         <v>308</v>
       </c>
-      <c r="K8" t="s">
-        <v>309</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I9" t="s">
+        <v>307</v>
+      </c>
+      <c r="K9" t="s">
         <v>308</v>
       </c>
-      <c r="K9" t="s">
-        <v>309</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I10" t="s">
+        <v>307</v>
+      </c>
+      <c r="K10" t="s">
         <v>308</v>
       </c>
-      <c r="K10" t="s">
-        <v>309</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I11" t="s">
+        <v>307</v>
+      </c>
+      <c r="K11" t="s">
         <v>308</v>
       </c>
-      <c r="K11" t="s">
-        <v>309</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K12" t="s">
         <v>308</v>
       </c>
-      <c r="K12" t="s">
-        <v>309</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" t="s">
         <v>308</v>
       </c>
-      <c r="K13" t="s">
-        <v>309</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I14" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" t="s">
         <v>308</v>
       </c>
-      <c r="K14" t="s">
-        <v>309</v>
-      </c>
       <c r="L14" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K15" t="s">
         <v>308</v>
       </c>
-      <c r="K15" t="s">
-        <v>309</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I16" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" t="s">
         <v>308</v>
       </c>
-      <c r="K16" t="s">
-        <v>309</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K17" t="s">
         <v>308</v>
       </c>
-      <c r="K17" t="s">
-        <v>309</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E18" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I18" t="s">
+        <v>307</v>
+      </c>
+      <c r="K18" t="s">
         <v>308</v>
       </c>
-      <c r="K18" t="s">
-        <v>309</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E19" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I19" t="s">
+        <v>307</v>
+      </c>
+      <c r="K19" t="s">
         <v>308</v>
       </c>
-      <c r="K19" t="s">
-        <v>309</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I20" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" t="s">
         <v>308</v>
       </c>
-      <c r="K20" t="s">
-        <v>309</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I21" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" t="s">
         <v>308</v>
       </c>
-      <c r="K21" t="s">
-        <v>309</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E22" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I22" t="s">
+        <v>307</v>
+      </c>
+      <c r="K22" t="s">
         <v>308</v>
       </c>
-      <c r="K22" t="s">
-        <v>309</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E23" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I23" t="s">
+        <v>307</v>
+      </c>
+      <c r="K23" t="s">
         <v>308</v>
       </c>
-      <c r="K23" t="s">
-        <v>309</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I24" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" t="s">
         <v>308</v>
       </c>
-      <c r="K24" t="s">
-        <v>309</v>
-      </c>
       <c r="L24" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I25" t="s">
+        <v>307</v>
+      </c>
+      <c r="K25" t="s">
         <v>308</v>
       </c>
-      <c r="K25" t="s">
-        <v>309</v>
-      </c>
       <c r="L25" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E26" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I26" t="s">
+        <v>307</v>
+      </c>
+      <c r="K26" t="s">
         <v>308</v>
       </c>
-      <c r="K26" t="s">
-        <v>309</v>
-      </c>
       <c r="L26" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I27" t="s">
+        <v>307</v>
+      </c>
+      <c r="K27" t="s">
         <v>308</v>
       </c>
-      <c r="K27" t="s">
-        <v>309</v>
-      </c>
       <c r="L27" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I28" t="s">
+        <v>307</v>
+      </c>
+      <c r="K28" t="s">
         <v>308</v>
       </c>
-      <c r="K28" t="s">
-        <v>309</v>
-      </c>
       <c r="L28" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E29" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I29" t="s">
+        <v>307</v>
+      </c>
+      <c r="K29" t="s">
         <v>308</v>
       </c>
-      <c r="K29" t="s">
-        <v>309</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E30" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I30" t="s">
+        <v>307</v>
+      </c>
+      <c r="K30" t="s">
         <v>308</v>
       </c>
-      <c r="K30" t="s">
-        <v>309</v>
-      </c>
       <c r="L30" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="I31" t="s">
+        <v>307</v>
+      </c>
+      <c r="K31" t="s">
         <v>308</v>
       </c>
-      <c r="K31" t="s">
-        <v>309</v>
-      </c>
       <c r="L31" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2472,7 +2478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57675CD8-82E4-3342-9B0E-A942DEA2B945}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2482,7 +2490,7 @@
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -2493,60 +2501,72 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" t="s">
         <v>257</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>258</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>259</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>260</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>261</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>262</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>263</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>264</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>265</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>266</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>267</v>
       </c>
-      <c r="L1" t="s">
-        <v>268</v>
-      </c>
       <c r="M1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" t="s">
         <v>270</v>
-      </c>
-      <c r="O1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44515</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44515</v>
+      </c>
+      <c r="J2" t="s">
+        <v>329</v>
       </c>
       <c r="K2">
         <v>30</v>
@@ -2555,13 +2575,13 @@
         <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2573,7 +2593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E550A-B266-5145-AE42-588A1CF08EAB}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -2596,919 +2616,919 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
         <v>201</v>
       </c>
-      <c r="B1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>202</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>203</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>204</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>205</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>206</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>207</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K1" t="s">
         <v>208</v>
       </c>
-      <c r="J1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K1" t="s">
-        <v>209</v>
-      </c>
       <c r="L1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3544,71 +3564,71 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3623,26 +3643,26 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3657,26 +3677,26 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3691,26 +3711,26 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3725,26 +3745,26 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3759,26 +3779,26 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3793,26 +3813,26 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3827,26 +3847,26 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3861,26 +3881,26 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3895,26 +3915,26 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3929,26 +3949,26 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3963,26 +3983,26 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3997,26 +4017,26 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4031,26 +4051,26 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4065,26 +4085,26 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4099,26 +4119,26 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -4133,26 +4153,26 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4167,26 +4187,26 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4201,26 +4221,26 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4235,26 +4255,26 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4269,26 +4289,26 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -4303,26 +4323,26 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4337,26 +4357,26 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4371,26 +4391,26 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4405,26 +4425,26 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4439,26 +4459,26 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -4473,26 +4493,26 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -4507,26 +4527,26 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -4541,26 +4561,26 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4575,26 +4595,26 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -4609,16 +4629,16 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -4663,865 +4683,865 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
         <v>224</v>
       </c>
-      <c r="B1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" t="s">
         <v>225</v>
       </c>
-      <c r="D1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>226</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>228</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>229</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K1" t="s">
         <v>230</v>
       </c>
-      <c r="J1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>231</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>232</v>
       </c>
-      <c r="M1" t="s">
-        <v>233</v>
-      </c>
       <c r="N1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4"/>
       <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
       <c r="N2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4"/>
       <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
       <c r="N3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4"/>
       <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
       <c r="N4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4"/>
       <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
       <c r="N5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4"/>
       <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
       <c r="N6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4"/>
       <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
       <c r="N7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4"/>
       <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4"/>
       <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4"/>
       <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4"/>
       <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
         <v>3</v>
       </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
       <c r="N11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4"/>
       <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4"/>
       <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
         <v>3</v>
       </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
       <c r="N13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4"/>
       <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
         <v>3</v>
       </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4"/>
       <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
       <c r="N15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4"/>
       <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
         <v>3</v>
       </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
       <c r="N16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4"/>
       <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>4</v>
-      </c>
       <c r="N17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4"/>
       <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
         <v>3</v>
       </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4"/>
       <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
         <v>3</v>
       </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
       <c r="N19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4"/>
       <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
         <v>3</v>
       </c>
-      <c r="J20" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4"/>
       <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
         <v>3</v>
       </c>
-      <c r="J21" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4"/>
       <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
         <v>3</v>
       </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
       <c r="N22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4"/>
       <c r="I23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>4</v>
-      </c>
       <c r="N23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4"/>
       <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
       <c r="N24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4"/>
       <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
-        <v>4</v>
-      </c>
       <c r="N25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4"/>
       <c r="I26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
       <c r="N26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="4"/>
       <c r="I27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
         <v>3</v>
       </c>
-      <c r="J27" t="s">
-        <v>4</v>
-      </c>
       <c r="N27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4"/>
       <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
         <v>3</v>
       </c>
-      <c r="J28" t="s">
-        <v>4</v>
-      </c>
       <c r="N28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4"/>
       <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
         <v>3</v>
       </c>
-      <c r="J29" t="s">
-        <v>4</v>
-      </c>
       <c r="N29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="4"/>
       <c r="I30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
         <v>3</v>
       </c>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
       <c r="N30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="4"/>
       <c r="I31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
         <v>3</v>
       </c>
-      <c r="J31" t="s">
-        <v>4</v>
-      </c>
       <c r="N31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5555,916 +5575,916 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" t="s">
         <v>235</v>
       </c>
-      <c r="B1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" t="s">
-        <v>236</v>
-      </c>
       <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" t="s">
         <v>238</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>239</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>240</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>241</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>242</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>243</v>
       </c>
-      <c r="J1" t="s">
-        <v>244</v>
-      </c>
       <c r="K1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6502,752 +6522,752 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="M2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
       <c r="M3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
       <c r="M4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
       <c r="M5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
       <c r="M6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
       <c r="M7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
       <c r="M8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
       <c r="M9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
       <c r="M10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
       <c r="M11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
       <c r="M12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
       <c r="M13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
       <c r="M14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
         <v>6</v>
       </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
       <c r="M15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
       <c r="M16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
       <c r="M17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
       <c r="M18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
       <c r="M19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
         <v>6</v>
       </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
       <c r="M20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
       <c r="M21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
       <c r="M22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
         <v>6</v>
       </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
       <c r="M23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
       <c r="M24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
       <c r="M25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
         <v>6</v>
       </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
       <c r="M26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
       <c r="M27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
         <v>6</v>
       </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
       <c r="M28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
         <v>6</v>
       </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
       <c r="M29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
         <v>6</v>
       </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
       <c r="M30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
         <v>6</v>
       </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
       <c r="M31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/demo/urdm_demo.xlsx
+++ b/data/demo/urdm_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/rd-datamodel/data/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B50B5D7-82B0-9847-9A2F-E38D6F0D57CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9536CC1-9764-B84A-9215-FDDF57018715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="urdm_lookups_organization" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="331">
   <si>
     <t>ancestry</t>
   </si>
@@ -1029,6 +1029,9 @@
   </si>
   <si>
     <t>Study Completed</t>
+  </si>
+  <si>
+    <t>sequencingFacilityOrganization</t>
   </si>
 </sst>
 </file>
@@ -2476,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57675CD8-82E4-3342-9B0E-A942DEA2B945}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2495,11 +2498,12 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>256</v>
       </c>
@@ -2537,16 +2541,19 @@
         <v>267</v>
       </c>
       <c r="M1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N1" t="s">
         <v>272</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>269</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2575,12 +2582,15 @@
         <v>30</v>
       </c>
       <c r="M2" t="s">
+        <v>322</v>
+      </c>
+      <c r="N2" t="s">
         <v>273</v>
       </c>
-      <c r="N2" t="s">
-        <v>271</v>
-      </c>
       <c r="O2" t="s">
+        <v>271</v>
+      </c>
+      <c r="P2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4657,8 +4667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E48B682-4539-B84F-A627-D10C87B9BED7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4744,7 +4754,9 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
@@ -4771,7 +4783,9 @@
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I3" t="s">
         <v>2</v>
       </c>
@@ -4798,7 +4812,9 @@
       <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -4825,7 +4841,9 @@
       <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
@@ -4852,7 +4870,9 @@
       <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I6" t="s">
         <v>2</v>
       </c>
@@ -4879,7 +4899,9 @@
       <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I7" t="s">
         <v>2</v>
       </c>
@@ -4906,7 +4928,9 @@
       <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I8" t="s">
         <v>2</v>
       </c>
@@ -4933,7 +4957,9 @@
       <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I9" t="s">
         <v>2</v>
       </c>
@@ -4960,7 +4986,9 @@
       <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I10" t="s">
         <v>2</v>
       </c>
@@ -4987,7 +5015,9 @@
       <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I11" t="s">
         <v>2</v>
       </c>
@@ -5014,7 +5044,9 @@
       <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I12" t="s">
         <v>2</v>
       </c>
@@ -5041,7 +5073,9 @@
       <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I13" t="s">
         <v>2</v>
       </c>
@@ -5068,7 +5102,9 @@
       <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I14" t="s">
         <v>2</v>
       </c>
@@ -5095,7 +5131,9 @@
       <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I15" t="s">
         <v>2</v>
       </c>
@@ -5122,7 +5160,9 @@
       <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I16" t="s">
         <v>2</v>
       </c>
@@ -5149,7 +5189,9 @@
       <c r="C17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I17" t="s">
         <v>2</v>
       </c>
@@ -5176,7 +5218,9 @@
       <c r="C18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I18" t="s">
         <v>2</v>
       </c>
@@ -5203,7 +5247,9 @@
       <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I19" t="s">
         <v>2</v>
       </c>
@@ -5230,7 +5276,9 @@
       <c r="C20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I20" t="s">
         <v>2</v>
       </c>
@@ -5257,7 +5305,9 @@
       <c r="C21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I21" t="s">
         <v>2</v>
       </c>
@@ -5284,7 +5334,9 @@
       <c r="C22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I22" t="s">
         <v>2</v>
       </c>
@@ -5311,7 +5363,9 @@
       <c r="C23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I23" t="s">
         <v>2</v>
       </c>
@@ -5338,7 +5392,9 @@
       <c r="C24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I24" t="s">
         <v>2</v>
       </c>
@@ -5365,7 +5421,9 @@
       <c r="C25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I25" t="s">
         <v>2</v>
       </c>
@@ -5392,7 +5450,9 @@
       <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I26" t="s">
         <v>2</v>
       </c>
@@ -5419,7 +5479,9 @@
       <c r="C27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I27" t="s">
         <v>2</v>
       </c>
@@ -5446,7 +5508,9 @@
       <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I28" t="s">
         <v>2</v>
       </c>
@@ -5473,7 +5537,9 @@
       <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I29" t="s">
         <v>2</v>
       </c>
@@ -5500,7 +5566,9 @@
       <c r="C30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I30" t="s">
         <v>2</v>
       </c>
@@ -5527,7 +5595,9 @@
       <c r="C31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="I31" t="s">
         <v>2</v>
       </c>
@@ -6495,10 +6565,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6B4917-DB56-1043-ADC3-08CD8F6201F7}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6506,21 +6576,22 @@
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125"/>
-    <col min="15" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125"/>
+    <col min="16" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -6531,46 +6602,49 @@
         <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>272</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -6578,23 +6652,26 @@
         <v>94</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>322</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>271</v>
+      <c r="N2" t="s">
+        <v>322</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -6602,23 +6679,26 @@
         <v>95</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" t="s">
-        <v>322</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>271</v>
+      <c r="N3" t="s">
+        <v>322</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -6626,23 +6706,26 @@
         <v>96</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="M4" t="s">
-        <v>322</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>271</v>
+      <c r="N4" t="s">
+        <v>322</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -6650,23 +6733,26 @@
         <v>97</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="M5" t="s">
-        <v>322</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>271</v>
+      <c r="N5" t="s">
+        <v>322</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -6674,23 +6760,26 @@
         <v>98</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="M6" t="s">
-        <v>322</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>271</v>
+      <c r="N6" t="s">
+        <v>322</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -6698,23 +6787,26 @@
         <v>99</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="M7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>271</v>
+      <c r="N7" t="s">
+        <v>322</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -6722,23 +6814,26 @@
         <v>100</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="M8" t="s">
-        <v>322</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>271</v>
+      <c r="N8" t="s">
+        <v>322</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -6746,23 +6841,26 @@
         <v>101</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="M9" t="s">
-        <v>322</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>271</v>
+      <c r="N9" t="s">
+        <v>322</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -6770,23 +6868,26 @@
         <v>102</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>6</v>
       </c>
-      <c r="M10" t="s">
-        <v>322</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>271</v>
+      <c r="N10" t="s">
+        <v>322</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -6794,479 +6895,542 @@
         <v>103</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>6</v>
       </c>
-      <c r="M11" t="s">
-        <v>322</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>271</v>
+      <c r="N11" t="s">
+        <v>322</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="M12" t="s">
-        <v>322</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>271</v>
+      <c r="N12" t="s">
+        <v>322</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>135</v>
       </c>
       <c r="B13" t="s">
         <v>105</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="M13" t="s">
-        <v>322</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>271</v>
+      <c r="N13" t="s">
+        <v>322</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>106</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>6</v>
       </c>
-      <c r="M14" t="s">
-        <v>322</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>271</v>
+      <c r="N14" t="s">
+        <v>322</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
       <c r="B15" t="s">
         <v>107</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>6</v>
       </c>
-      <c r="M15" t="s">
-        <v>322</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>271</v>
+      <c r="N15" t="s">
+        <v>322</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>138</v>
       </c>
       <c r="B16" t="s">
         <v>108</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="M16" t="s">
-        <v>322</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>271</v>
+      <c r="N16" t="s">
+        <v>322</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>139</v>
       </c>
       <c r="B17" t="s">
         <v>109</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="M17" t="s">
-        <v>322</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>271</v>
+      <c r="N17" t="s">
+        <v>322</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>140</v>
       </c>
       <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" t="s">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="M18" t="s">
-        <v>322</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>271</v>
+      <c r="N18" t="s">
+        <v>322</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>141</v>
       </c>
       <c r="B19" t="s">
         <v>111</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>6</v>
       </c>
-      <c r="M19" t="s">
-        <v>322</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>271</v>
+      <c r="N19" t="s">
+        <v>322</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>142</v>
       </c>
       <c r="B20" t="s">
         <v>112</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="M20" t="s">
-        <v>322</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>271</v>
+      <c r="N20" t="s">
+        <v>322</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
       <c r="B21" t="s">
         <v>113</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" t="s">
         <v>5</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>6</v>
       </c>
-      <c r="M21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>271</v>
+      <c r="N21" t="s">
+        <v>322</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>144</v>
       </c>
       <c r="B22" t="s">
         <v>114</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E22" t="s">
         <v>5</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>6</v>
       </c>
-      <c r="M22" t="s">
-        <v>322</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>271</v>
+      <c r="N22" t="s">
+        <v>322</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>145</v>
       </c>
       <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" t="s">
         <v>5</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="M23" t="s">
-        <v>322</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>271</v>
+      <c r="N23" t="s">
+        <v>322</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>146</v>
       </c>
       <c r="B24" t="s">
         <v>116</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" t="s">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>6</v>
       </c>
-      <c r="M24" t="s">
-        <v>322</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>271</v>
+      <c r="N24" t="s">
+        <v>322</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>147</v>
       </c>
       <c r="B25" t="s">
         <v>117</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" t="s">
         <v>5</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="M25" t="s">
-        <v>322</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>271</v>
+      <c r="N25" t="s">
+        <v>322</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>148</v>
       </c>
       <c r="B26" t="s">
         <v>118</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" t="s">
         <v>5</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>6</v>
       </c>
-      <c r="M26" t="s">
-        <v>322</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>271</v>
+      <c r="N26" t="s">
+        <v>322</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>149</v>
       </c>
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" t="s">
         <v>5</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="M27" t="s">
-        <v>322</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>271</v>
+      <c r="N27" t="s">
+        <v>322</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>150</v>
       </c>
       <c r="B28" t="s">
         <v>120</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" t="s">
         <v>5</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>6</v>
       </c>
-      <c r="M28" t="s">
-        <v>322</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>271</v>
+      <c r="N28" t="s">
+        <v>322</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>151</v>
       </c>
       <c r="B29" t="s">
         <v>121</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E29" t="s">
         <v>5</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>6</v>
       </c>
-      <c r="M29" t="s">
-        <v>322</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>271</v>
+      <c r="N29" t="s">
+        <v>322</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>152</v>
       </c>
       <c r="B30" t="s">
         <v>122</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" t="s">
         <v>5</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" t="s">
-        <v>322</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>271</v>
+      <c r="N30" t="s">
+        <v>322</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>153</v>
       </c>
       <c r="B31" t="s">
         <v>123</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>6</v>
       </c>
-      <c r="M31" t="s">
-        <v>322</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>271</v>
+      <c r="N31" t="s">
+        <v>322</v>
       </c>
       <c r="P31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q31" s="1" t="s">
         <v>271</v>
       </c>
     </row>

--- a/data/demo/urdm_demo.xlsx
+++ b/data/demo/urdm_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/rd-datamodel/data/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9536CC1-9764-B84A-9215-FDDF57018715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24669BF3-808B-934F-8007-45E11BC370B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="urdm_lookups_organization" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="535">
   <si>
     <t>ancestry</t>
   </si>
@@ -1032,12 +1032,627 @@
   </si>
   <si>
     <t>sequencingFacilityOrganization</t>
+  </si>
+  <si>
+    <t>SampleID-9000</t>
+  </si>
+  <si>
+    <t>sequencingID-5000</t>
+  </si>
+  <si>
+    <t>sequencingID-5001</t>
+  </si>
+  <si>
+    <t>SampleID-9001</t>
+  </si>
+  <si>
+    <t>sequencingID-5002</t>
+  </si>
+  <si>
+    <t>SampleID-9002</t>
+  </si>
+  <si>
+    <t>sequencingID-5003</t>
+  </si>
+  <si>
+    <t>SampleID-9003</t>
+  </si>
+  <si>
+    <t>sequencingID-5004</t>
+  </si>
+  <si>
+    <t>SampleID-9004</t>
+  </si>
+  <si>
+    <t>sequencingID-5005</t>
+  </si>
+  <si>
+    <t>SampleID-9005</t>
+  </si>
+  <si>
+    <t>sequencingID-5006</t>
+  </si>
+  <si>
+    <t>SampleID-9006</t>
+  </si>
+  <si>
+    <t>sequencingID-5007</t>
+  </si>
+  <si>
+    <t>SampleID-9007</t>
+  </si>
+  <si>
+    <t>sequencingID-5008</t>
+  </si>
+  <si>
+    <t>SampleID-9008</t>
+  </si>
+  <si>
+    <t>sequencingID-5009</t>
+  </si>
+  <si>
+    <t>SampleID-9009</t>
+  </si>
+  <si>
+    <t>sequencingID-5010</t>
+  </si>
+  <si>
+    <t>SampleID-9010</t>
+  </si>
+  <si>
+    <t>sequencingID-5011</t>
+  </si>
+  <si>
+    <t>SampleID-9011</t>
+  </si>
+  <si>
+    <t>sequencingID-5012</t>
+  </si>
+  <si>
+    <t>SampleID-9012</t>
+  </si>
+  <si>
+    <t>sequencingID-5013</t>
+  </si>
+  <si>
+    <t>SampleID-9013</t>
+  </si>
+  <si>
+    <t>sequencingID-5014</t>
+  </si>
+  <si>
+    <t>SampleID-9014</t>
+  </si>
+  <si>
+    <t>sequencingID-5015</t>
+  </si>
+  <si>
+    <t>SampleID-9015</t>
+  </si>
+  <si>
+    <t>sequencingID-5016</t>
+  </si>
+  <si>
+    <t>SampleID-9016</t>
+  </si>
+  <si>
+    <t>sequencingID-5017</t>
+  </si>
+  <si>
+    <t>SampleID-9017</t>
+  </si>
+  <si>
+    <t>sequencingID-5018</t>
+  </si>
+  <si>
+    <t>SampleID-9018</t>
+  </si>
+  <si>
+    <t>sequencingID-5019</t>
+  </si>
+  <si>
+    <t>SampleID-9019</t>
+  </si>
+  <si>
+    <t>2021-11-16T14:02:00Z</t>
+  </si>
+  <si>
+    <t>CosasV1</t>
+  </si>
+  <si>
+    <t>Test Mapping</t>
+  </si>
+  <si>
+    <t>Test Cosas Mapping</t>
+  </si>
+  <si>
+    <t>Test Mapping of Cosas data to URDM</t>
+  </si>
+  <si>
+    <t>Dr. T. EST</t>
+  </si>
+  <si>
+    <t>MaterialID-1000</t>
+  </si>
+  <si>
+    <t>MaterialID-1001</t>
+  </si>
+  <si>
+    <t>MaterialID-1002</t>
+  </si>
+  <si>
+    <t>MaterialID-1003</t>
+  </si>
+  <si>
+    <t>MaterialID-1004</t>
+  </si>
+  <si>
+    <t>MaterialID-1005</t>
+  </si>
+  <si>
+    <t>MaterialID-1006</t>
+  </si>
+  <si>
+    <t>MaterialID-1007</t>
+  </si>
+  <si>
+    <t>MaterialID-1008</t>
+  </si>
+  <si>
+    <t>MaterialID-1009</t>
+  </si>
+  <si>
+    <t>MaterialID-1010</t>
+  </si>
+  <si>
+    <t>MaterialID-1011</t>
+  </si>
+  <si>
+    <t>MaterialID-1012</t>
+  </si>
+  <si>
+    <t>MaterialID-1013</t>
+  </si>
+  <si>
+    <t>MaterialID-1014</t>
+  </si>
+  <si>
+    <t>MaterialID-1015</t>
+  </si>
+  <si>
+    <t>MaterialID-1016</t>
+  </si>
+  <si>
+    <t>MaterialID-1017</t>
+  </si>
+  <si>
+    <t>MaterialID-1018</t>
+  </si>
+  <si>
+    <t>MaterialID-1019</t>
+  </si>
+  <si>
+    <t>diagnostic</t>
+  </si>
+  <si>
+    <t>informative</t>
+  </si>
+  <si>
+    <t>CV-1000</t>
+  </si>
+  <si>
+    <t>CV-1001</t>
+  </si>
+  <si>
+    <t>CV-1002</t>
+  </si>
+  <si>
+    <t>CV-1003</t>
+  </si>
+  <si>
+    <t>CV-1004</t>
+  </si>
+  <si>
+    <t>CV-1005</t>
+  </si>
+  <si>
+    <t>CV-1006</t>
+  </si>
+  <si>
+    <t>CV-1007</t>
+  </si>
+  <si>
+    <t>CV-1008</t>
+  </si>
+  <si>
+    <t>CV-1009</t>
+  </si>
+  <si>
+    <t>CV-1010</t>
+  </si>
+  <si>
+    <t>CV-1011</t>
+  </si>
+  <si>
+    <t>CV-1012</t>
+  </si>
+  <si>
+    <t>CV-1013</t>
+  </si>
+  <si>
+    <t>CV-1014</t>
+  </si>
+  <si>
+    <t>CV-1015</t>
+  </si>
+  <si>
+    <t>CV-1016</t>
+  </si>
+  <si>
+    <t>CV-1017</t>
+  </si>
+  <si>
+    <t>CV-1018</t>
+  </si>
+  <si>
+    <t>CV-1019</t>
+  </si>
+  <si>
+    <t>Req-6000</t>
+  </si>
+  <si>
+    <t>Req-6001</t>
+  </si>
+  <si>
+    <t>Req-6002</t>
+  </si>
+  <si>
+    <t>Req-6003</t>
+  </si>
+  <si>
+    <t>Req-6004</t>
+  </si>
+  <si>
+    <t>Req-6005</t>
+  </si>
+  <si>
+    <t>Req-6006</t>
+  </si>
+  <si>
+    <t>Req-6007</t>
+  </si>
+  <si>
+    <t>Req-6008</t>
+  </si>
+  <si>
+    <t>Req-6009</t>
+  </si>
+  <si>
+    <t>Req-6010</t>
+  </si>
+  <si>
+    <t>Req-6011</t>
+  </si>
+  <si>
+    <t>Req-6012</t>
+  </si>
+  <si>
+    <t>Req-6013</t>
+  </si>
+  <si>
+    <t>Req-6014</t>
+  </si>
+  <si>
+    <t>Req-6015</t>
+  </si>
+  <si>
+    <t>Req-6016</t>
+  </si>
+  <si>
+    <t>Req-6017</t>
+  </si>
+  <si>
+    <t>Req-6018</t>
+  </si>
+  <si>
+    <t>Req-6019</t>
+  </si>
+  <si>
+    <t>NextSeq sequencer 2</t>
+  </si>
+  <si>
+    <t>NextSeq sequencer 1</t>
+  </si>
+  <si>
+    <t>MiSeq sequencer 2</t>
+  </si>
+  <si>
+    <t>ClinicalID-90</t>
+  </si>
+  <si>
+    <t>ClinicalID-91</t>
+  </si>
+  <si>
+    <t>ClinicalID-92</t>
+  </si>
+  <si>
+    <t>ClinicalID-93</t>
+  </si>
+  <si>
+    <t>ClinicalID-94</t>
+  </si>
+  <si>
+    <t>ClinicalID-95</t>
+  </si>
+  <si>
+    <t>ClinicalID-96</t>
+  </si>
+  <si>
+    <t>ClinicalID-97</t>
+  </si>
+  <si>
+    <t>ClinicalID-98</t>
+  </si>
+  <si>
+    <t>ClinicalID-99</t>
+  </si>
+  <si>
+    <t>ClinicalID-100</t>
+  </si>
+  <si>
+    <t>ClinicalID-101</t>
+  </si>
+  <si>
+    <t>ClinicalID-102</t>
+  </si>
+  <si>
+    <t>ClinicalID-103</t>
+  </si>
+  <si>
+    <t>ClinicalID-104</t>
+  </si>
+  <si>
+    <t>ClinicalID-105</t>
+  </si>
+  <si>
+    <t>ClinicalID-106</t>
+  </si>
+  <si>
+    <t>ClinicalID-107</t>
+  </si>
+  <si>
+    <t>ClinicalID-108</t>
+  </si>
+  <si>
+    <t>ClinicalID-109</t>
+  </si>
+  <si>
+    <t>HP:0000717,HP:0000750</t>
+  </si>
+  <si>
+    <t>HP:0002463,HP:0000365</t>
+  </si>
+  <si>
+    <t>HP:0000729,HP:0001263</t>
+  </si>
+  <si>
+    <t>HP:0007018</t>
+  </si>
+  <si>
+    <t>HP:0001270</t>
+  </si>
+  <si>
+    <t>belongsToMother</t>
+  </si>
+  <si>
+    <t>belongsToFather</t>
+  </si>
+  <si>
+    <t>belongsWithFamilyMembers</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>dateOfDeath</t>
+  </si>
+  <si>
+    <t>contactPerson</t>
+  </si>
+  <si>
+    <t>contactEmail</t>
+  </si>
+  <si>
+    <t>firstVisitDate</t>
+  </si>
+  <si>
+    <t>belongsWithTwin</t>
+  </si>
+  <si>
+    <t>fetalStatus</t>
+  </si>
+  <si>
+    <t>consanguinity</t>
+  </si>
+  <si>
+    <t>Family12345</t>
+  </si>
+  <si>
+    <t>Family12346</t>
+  </si>
+  <si>
+    <t>Family12347</t>
+  </si>
+  <si>
+    <t>Family12348</t>
+  </si>
+  <si>
+    <t>Family12349</t>
+  </si>
+  <si>
+    <t>Family12350</t>
+  </si>
+  <si>
+    <t>Family12351</t>
+  </si>
+  <si>
+    <t>Family12352</t>
+  </si>
+  <si>
+    <t>Family12353</t>
+  </si>
+  <si>
+    <t>Family12354</t>
+  </si>
+  <si>
+    <t>Family12355</t>
+  </si>
+  <si>
+    <t>Family12356</t>
+  </si>
+  <si>
+    <t>Family12357</t>
+  </si>
+  <si>
+    <t>Family12358</t>
+  </si>
+  <si>
+    <t>Family12359</t>
+  </si>
+  <si>
+    <t>Family12360</t>
+  </si>
+  <si>
+    <t>Family12361</t>
+  </si>
+  <si>
+    <t>Family12362</t>
+  </si>
+  <si>
+    <t>Family12363</t>
+  </si>
+  <si>
+    <t>Family12364</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>HP:0002650,HP:0000767</t>
+  </si>
+  <si>
+    <t>HP:0000925</t>
+  </si>
+  <si>
+    <t>HP:0007281,HP:0001290</t>
+  </si>
+  <si>
+    <t>HP:0001159</t>
+  </si>
+  <si>
+    <t>HP:0010442</t>
+  </si>
+  <si>
+    <t>HP:0001263</t>
+  </si>
+  <si>
+    <t>HP:0000717</t>
+  </si>
+  <si>
+    <t>HP:0000508</t>
+  </si>
+  <si>
+    <t>Consent-90</t>
+  </si>
+  <si>
+    <t>Consent-91</t>
+  </si>
+  <si>
+    <t>Consent-92</t>
+  </si>
+  <si>
+    <t>Consent-93</t>
+  </si>
+  <si>
+    <t>Consent-94</t>
+  </si>
+  <si>
+    <t>Consent-95</t>
+  </si>
+  <si>
+    <t>Consent-96</t>
+  </si>
+  <si>
+    <t>Consent-97</t>
+  </si>
+  <si>
+    <t>Consent-98</t>
+  </si>
+  <si>
+    <t>Consent-99</t>
+  </si>
+  <si>
+    <t>Consent-100</t>
+  </si>
+  <si>
+    <t>Consent-101</t>
+  </si>
+  <si>
+    <t>Consent-102</t>
+  </si>
+  <si>
+    <t>Consent-103</t>
+  </si>
+  <si>
+    <t>Consent-104</t>
+  </si>
+  <si>
+    <t>Consent-105</t>
+  </si>
+  <si>
+    <t>Consent-106</t>
+  </si>
+  <si>
+    <t>Consent-107</t>
+  </si>
+  <si>
+    <t>Consent-108</t>
+  </si>
+  <si>
+    <t>Consent-109</t>
+  </si>
+  <si>
+    <t>this is a test mapping of random anonymized cosas data</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t>HP:0002463,HP:0010864</t>
+  </si>
+  <si>
+    <t>referenceGenomeUsed</t>
+  </si>
+  <si>
+    <t>GRCh37</t>
+  </si>
+  <si>
+    <t>CV-1009,CV-1010,CV-1019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\Thh:mm:dd:ss\Z"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,13 +1702,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1458,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50A4ED6-C13D-8846-BBFC-BF57003DB9A0}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1520,6 +2136,29 @@
         <v>308</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44516</v>
+      </c>
+      <c r="E3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1527,31 +2166,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="3" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" customWidth="1"/>
-    <col min="15" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="12.1640625" customWidth="1"/>
+    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" customWidth="1"/>
+    <col min="27" max="28" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -1559,916 +2208,1847 @@
         <v>274</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>467</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>468</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>470</v>
       </c>
       <c r="H1" t="s">
         <v>165</v>
       </c>
       <c r="I1" t="s">
-        <v>166</v>
+        <v>471</v>
       </c>
       <c r="J1" t="s">
         <v>167</v>
       </c>
       <c r="K1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
         <v>168</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
+        <v>472</v>
+      </c>
+      <c r="R1" t="s">
+        <v>473</v>
+      </c>
+      <c r="S1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T1" t="s">
+        <v>474</v>
+      </c>
+      <c r="U1" t="s">
+        <v>475</v>
+      </c>
+      <c r="V1" t="s">
+        <v>476</v>
+      </c>
+      <c r="W1" t="s">
+        <v>477</v>
+      </c>
+      <c r="X1" t="s">
         <v>169</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Y1" t="s">
         <v>325</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Z1" t="s">
         <v>272</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="N2" t="s">
         <v>327</v>
       </c>
-      <c r="I2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K2" t="s">
-        <v>308</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>322</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>308</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="N3" t="s">
         <v>327</v>
       </c>
-      <c r="I3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K3" t="s">
-        <v>308</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>322</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>308</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="N4" t="s">
         <v>327</v>
       </c>
-      <c r="I4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K4" t="s">
-        <v>308</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>322</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>308</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="N5" t="s">
         <v>327</v>
       </c>
-      <c r="I5" t="s">
-        <v>307</v>
-      </c>
-      <c r="K5" t="s">
-        <v>308</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>322</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>308</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="N6" t="s">
         <v>327</v>
       </c>
-      <c r="I6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K6" t="s">
-        <v>308</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>322</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>308</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="N7" t="s">
         <v>327</v>
       </c>
-      <c r="I7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>308</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="N8" t="s">
         <v>327</v>
       </c>
-      <c r="I8" t="s">
-        <v>307</v>
-      </c>
-      <c r="K8" t="s">
-        <v>308</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>322</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>308</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="N9" t="s">
         <v>327</v>
       </c>
-      <c r="I9" t="s">
-        <v>307</v>
-      </c>
-      <c r="K9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>322</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" t="s">
+        <v>308</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="N10" t="s">
         <v>327</v>
       </c>
-      <c r="I10" t="s">
-        <v>307</v>
-      </c>
-      <c r="K10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>322</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>308</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="N11" t="s">
         <v>327</v>
       </c>
-      <c r="I11" t="s">
-        <v>307</v>
-      </c>
-      <c r="K11" t="s">
-        <v>308</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>322</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>308</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" t="s">
+        <v>307</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="N12" t="s">
         <v>327</v>
       </c>
-      <c r="I12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K12" t="s">
-        <v>308</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
-        <v>322</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>308</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="N13" t="s">
         <v>327</v>
       </c>
-      <c r="I13" t="s">
-        <v>307</v>
-      </c>
-      <c r="K13" t="s">
-        <v>308</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>322</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>308</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="N14" t="s">
         <v>327</v>
       </c>
-      <c r="I14" t="s">
-        <v>307</v>
-      </c>
-      <c r="K14" t="s">
-        <v>308</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>322</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>308</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" t="s">
+        <v>307</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="N15" t="s">
         <v>327</v>
       </c>
-      <c r="I15" t="s">
-        <v>307</v>
-      </c>
-      <c r="K15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>322</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>308</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="N16" t="s">
         <v>327</v>
       </c>
-      <c r="I16" t="s">
-        <v>307</v>
-      </c>
-      <c r="K16" t="s">
-        <v>308</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>322</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>308</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="N17" t="s">
         <v>327</v>
       </c>
-      <c r="I17" t="s">
-        <v>307</v>
-      </c>
-      <c r="K17" t="s">
-        <v>308</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>322</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>308</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="N18" t="s">
         <v>327</v>
       </c>
-      <c r="I18" t="s">
-        <v>307</v>
-      </c>
-      <c r="K18" t="s">
-        <v>308</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>322</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>308</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="N19" t="s">
         <v>327</v>
       </c>
-      <c r="I19" t="s">
-        <v>307</v>
-      </c>
-      <c r="K19" t="s">
-        <v>308</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>322</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>308</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="N20" t="s">
         <v>327</v>
       </c>
-      <c r="I20" t="s">
-        <v>307</v>
-      </c>
-      <c r="K20" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>322</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>308</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="N21" t="s">
         <v>327</v>
       </c>
-      <c r="I21" t="s">
-        <v>307</v>
-      </c>
-      <c r="K21" t="s">
-        <v>308</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>322</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>308</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="N22" t="s">
         <v>327</v>
       </c>
-      <c r="I22" t="s">
-        <v>307</v>
-      </c>
-      <c r="K22" t="s">
-        <v>308</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>322</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>308</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="N23" t="s">
         <v>327</v>
       </c>
-      <c r="I23" t="s">
-        <v>307</v>
-      </c>
-      <c r="K23" t="s">
-        <v>308</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>322</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>308</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="N24" t="s">
         <v>327</v>
       </c>
-      <c r="I24" t="s">
-        <v>307</v>
-      </c>
-      <c r="K24" t="s">
-        <v>308</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>322</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>308</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="N25" t="s">
         <v>327</v>
       </c>
-      <c r="I25" t="s">
-        <v>307</v>
-      </c>
-      <c r="K25" t="s">
-        <v>308</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>322</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P25" t="s">
+        <v>308</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="N26" t="s">
         <v>327</v>
       </c>
-      <c r="I26" t="s">
-        <v>307</v>
-      </c>
-      <c r="K26" t="s">
-        <v>308</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" t="s">
-        <v>322</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P26" t="s">
+        <v>308</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E27" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" t="s">
+        <v>307</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="N27" t="s">
         <v>327</v>
       </c>
-      <c r="I27" t="s">
-        <v>307</v>
-      </c>
-      <c r="K27" t="s">
-        <v>308</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
-        <v>322</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>308</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E28" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" t="s">
+        <v>307</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="N28" t="s">
         <v>327</v>
       </c>
-      <c r="I28" t="s">
-        <v>307</v>
-      </c>
-      <c r="K28" t="s">
-        <v>308</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
-        <v>322</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P28" t="s">
+        <v>308</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E29" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="N29" t="s">
         <v>327</v>
       </c>
-      <c r="I29" t="s">
-        <v>307</v>
-      </c>
-      <c r="K29" t="s">
-        <v>308</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>322</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P29" t="s">
+        <v>308</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E30" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="N30" t="s">
         <v>327</v>
       </c>
-      <c r="I30" t="s">
-        <v>307</v>
-      </c>
-      <c r="K30" t="s">
-        <v>308</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M30" t="s">
-        <v>322</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>308</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" t="s">
+        <v>307</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="N31" t="s">
         <v>327</v>
       </c>
-      <c r="I31" t="s">
-        <v>307</v>
-      </c>
-      <c r="K31" t="s">
-        <v>308</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M31" t="s">
-        <v>322</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>271</v>
+      <c r="P31" t="s">
+        <v>308</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F32" t="s">
+        <v>498</v>
+      </c>
+      <c r="K32" t="s">
+        <v>528</v>
+      </c>
+      <c r="N32" t="s">
+        <v>327</v>
+      </c>
+      <c r="P32" t="s">
+        <v>308</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" t="s">
+        <v>498</v>
+      </c>
+      <c r="K33" t="s">
+        <v>529</v>
+      </c>
+      <c r="N33" t="s">
+        <v>327</v>
+      </c>
+      <c r="P33" t="s">
+        <v>308</v>
+      </c>
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C34" t="s">
+        <v>408</v>
+      </c>
+      <c r="D34" t="s">
+        <v>409</v>
+      </c>
+      <c r="E34" t="s">
+        <v>534</v>
+      </c>
+      <c r="F34" t="s">
+        <v>498</v>
+      </c>
+      <c r="K34" t="s">
+        <v>528</v>
+      </c>
+      <c r="N34" t="s">
+        <v>327</v>
+      </c>
+      <c r="P34" t="s">
+        <v>308</v>
+      </c>
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F35" t="s">
+        <v>498</v>
+      </c>
+      <c r="K35" t="s">
+        <v>529</v>
+      </c>
+      <c r="N35" t="s">
+        <v>327</v>
+      </c>
+      <c r="P35" t="s">
+        <v>308</v>
+      </c>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F36" t="s">
+        <v>530</v>
+      </c>
+      <c r="K36" t="s">
+        <v>528</v>
+      </c>
+      <c r="N36" t="s">
+        <v>327</v>
+      </c>
+      <c r="P36" t="s">
+        <v>308</v>
+      </c>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" t="b">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F37" t="s">
+        <v>498</v>
+      </c>
+      <c r="K37" t="s">
+        <v>529</v>
+      </c>
+      <c r="N37" t="s">
+        <v>327</v>
+      </c>
+      <c r="P37" t="s">
+        <v>308</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" t="b">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F38" t="s">
+        <v>498</v>
+      </c>
+      <c r="K38" t="s">
+        <v>528</v>
+      </c>
+      <c r="N38" t="s">
+        <v>327</v>
+      </c>
+      <c r="P38" t="s">
+        <v>308</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F39" t="s">
+        <v>498</v>
+      </c>
+      <c r="K39" t="s">
+        <v>529</v>
+      </c>
+      <c r="N39" t="s">
+        <v>327</v>
+      </c>
+      <c r="P39" t="s">
+        <v>308</v>
+      </c>
+      <c r="U39" t="b">
+        <v>0</v>
+      </c>
+      <c r="V39" t="b">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F40" t="s">
+        <v>498</v>
+      </c>
+      <c r="K40" t="s">
+        <v>529</v>
+      </c>
+      <c r="N40" t="s">
+        <v>327</v>
+      </c>
+      <c r="P40" t="s">
+        <v>308</v>
+      </c>
+      <c r="U40" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" t="b">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F41" t="s">
+        <v>498</v>
+      </c>
+      <c r="K41" t="s">
+        <v>529</v>
+      </c>
+      <c r="N41" t="s">
+        <v>327</v>
+      </c>
+      <c r="P41" t="s">
+        <v>308</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F42" t="s">
+        <v>498</v>
+      </c>
+      <c r="K42" t="s">
+        <v>528</v>
+      </c>
+      <c r="N42" t="s">
+        <v>327</v>
+      </c>
+      <c r="P42" t="s">
+        <v>308</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F43" t="s">
+        <v>498</v>
+      </c>
+      <c r="K43" t="s">
+        <v>529</v>
+      </c>
+      <c r="N43" t="s">
+        <v>327</v>
+      </c>
+      <c r="P43" t="s">
+        <v>308</v>
+      </c>
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" t="b">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F44" t="s">
+        <v>498</v>
+      </c>
+      <c r="K44" t="s">
+        <v>528</v>
+      </c>
+      <c r="N44" t="s">
+        <v>327</v>
+      </c>
+      <c r="P44" t="s">
+        <v>308</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F45" t="s">
+        <v>498</v>
+      </c>
+      <c r="K45" t="s">
+        <v>529</v>
+      </c>
+      <c r="N45" t="s">
+        <v>327</v>
+      </c>
+      <c r="P45" t="s">
+        <v>308</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" t="b">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F46" t="s">
+        <v>498</v>
+      </c>
+      <c r="K46" t="s">
+        <v>529</v>
+      </c>
+      <c r="N46" t="s">
+        <v>327</v>
+      </c>
+      <c r="P46" t="s">
+        <v>308</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="b">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F47" t="s">
+        <v>498</v>
+      </c>
+      <c r="K47" t="s">
+        <v>529</v>
+      </c>
+      <c r="N47" t="s">
+        <v>327</v>
+      </c>
+      <c r="P47" t="s">
+        <v>308</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F48" t="s">
+        <v>498</v>
+      </c>
+      <c r="K48" t="s">
+        <v>528</v>
+      </c>
+      <c r="N48" t="s">
+        <v>327</v>
+      </c>
+      <c r="P48" t="s">
+        <v>308</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" t="b">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F49" t="s">
+        <v>498</v>
+      </c>
+      <c r="K49" t="s">
+        <v>529</v>
+      </c>
+      <c r="N49" t="s">
+        <v>327</v>
+      </c>
+      <c r="P49" t="s">
+        <v>308</v>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" t="b">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F50" t="s">
+        <v>530</v>
+      </c>
+      <c r="I50" s="3">
+        <v>401404</v>
+      </c>
+      <c r="J50">
+        <v>123.56</v>
+      </c>
+      <c r="K50" t="s">
+        <v>528</v>
+      </c>
+      <c r="N50" t="s">
+        <v>327</v>
+      </c>
+      <c r="P50" t="s">
+        <v>308</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="b">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F51" t="s">
+        <v>498</v>
+      </c>
+      <c r="K51" t="s">
+        <v>529</v>
+      </c>
+      <c r="N51" t="s">
+        <v>327</v>
+      </c>
+      <c r="P51" t="s">
+        <v>308</v>
+      </c>
+      <c r="U51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="b">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2479,10 +4059,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57675CD8-82E4-3342-9B0E-A942DEA2B945}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="O3" sqref="O3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2594,6 +4174,47 @@
         <v>271</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="3">
+        <v>44516</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44516</v>
+      </c>
+      <c r="J3" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>372</v>
+      </c>
+      <c r="N3" t="s">
+        <v>527</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2601,10 +4222,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E550A-B266-5145-AE42-588A1CF08EAB}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="B12" zoomScale="113" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3541,6 +5162,466 @@
         <v>271</v>
       </c>
     </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>507</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>372</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>508</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>372</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>509</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>372</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>510</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>372</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>511</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>372</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>512</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>372</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>513</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>372</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>514</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>372</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>515</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>372</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>516</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>517</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C42" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>372</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>518</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>372</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C44" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>372</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>520</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C45" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>372</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>521</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>372</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>522</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C47" t="s">
+        <v>308</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>372</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>523</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>372</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>524</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" t="s">
+        <v>308</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>372</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>525</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>526</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C51" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>372</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3549,10 +5630,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDBF5DD-15C1-6449-9C48-97EC90B865A1}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3564,7 +5646,7 @@
     <col min="7" max="12" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
     <col min="16" max="16" width="11.83203125" customWidth="1"/>
     <col min="17" max="17" width="8.83203125"/>
     <col min="18" max="19" width="19" bestFit="1" customWidth="1"/>
@@ -4654,8 +6736,512 @@
       <c r="U31" s="4"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>377</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>462</v>
+      </c>
+      <c r="O33" t="s">
+        <v>378</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>463</v>
+      </c>
+      <c r="O34" t="s">
+        <v>379</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>465</v>
+      </c>
+      <c r="H35" t="s">
+        <v>464</v>
+      </c>
+      <c r="I35" t="s">
+        <v>466</v>
+      </c>
+      <c r="O35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>381</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>382</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>531</v>
+      </c>
+      <c r="O38" t="s">
+        <v>383</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>384</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>502</v>
+      </c>
+      <c r="H40" t="s">
+        <v>503</v>
+      </c>
+      <c r="I40" t="s">
+        <v>499</v>
+      </c>
+      <c r="O40" t="s">
+        <v>385</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>386</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>500</v>
+      </c>
+      <c r="H42" t="s">
+        <v>501</v>
+      </c>
+      <c r="O42" t="s">
+        <v>387</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>388</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>389</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>504</v>
+      </c>
+      <c r="H45" t="s">
+        <v>505</v>
+      </c>
+      <c r="O45" t="s">
+        <v>390</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>466</v>
+      </c>
+      <c r="O46" t="s">
+        <v>391</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>505</v>
+      </c>
+      <c r="H47" t="s">
+        <v>506</v>
+      </c>
+      <c r="O47" t="s">
+        <v>392</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>393</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>394</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>395</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>396</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4665,10 +7251,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E48B682-4539-B84F-A627-D10C87B9BED7}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4677,12 +7263,12 @@
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -4763,6 +7349,9 @@
       <c r="J2" t="s">
         <v>3</v>
       </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
       <c r="N2" t="s">
         <v>322</v>
       </c>
@@ -4792,6 +7381,9 @@
       <c r="J3" t="s">
         <v>3</v>
       </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
       <c r="N3" t="s">
         <v>322</v>
       </c>
@@ -4821,6 +7413,9 @@
       <c r="J4" t="s">
         <v>3</v>
       </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
       <c r="N4" t="s">
         <v>322</v>
       </c>
@@ -4850,6 +7445,9 @@
       <c r="J5" t="s">
         <v>3</v>
       </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
       <c r="N5" t="s">
         <v>322</v>
       </c>
@@ -4879,6 +7477,9 @@
       <c r="J6" t="s">
         <v>3</v>
       </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
       <c r="N6" t="s">
         <v>322</v>
       </c>
@@ -4908,6 +7509,9 @@
       <c r="J7" t="s">
         <v>3</v>
       </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
       <c r="N7" t="s">
         <v>322</v>
       </c>
@@ -4937,6 +7541,9 @@
       <c r="J8" t="s">
         <v>3</v>
       </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
       <c r="N8" t="s">
         <v>322</v>
       </c>
@@ -4966,6 +7573,9 @@
       <c r="J9" t="s">
         <v>3</v>
       </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
       <c r="N9" t="s">
         <v>322</v>
       </c>
@@ -4995,6 +7605,9 @@
       <c r="J10" t="s">
         <v>3</v>
       </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
       <c r="N10" t="s">
         <v>322</v>
       </c>
@@ -5024,6 +7637,9 @@
       <c r="J11" t="s">
         <v>3</v>
       </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
       <c r="N11" t="s">
         <v>322</v>
       </c>
@@ -5053,6 +7669,9 @@
       <c r="J12" t="s">
         <v>3</v>
       </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
       <c r="N12" t="s">
         <v>322</v>
       </c>
@@ -5082,6 +7701,9 @@
       <c r="J13" t="s">
         <v>3</v>
       </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
       <c r="N13" t="s">
         <v>322</v>
       </c>
@@ -5111,6 +7733,9 @@
       <c r="J14" t="s">
         <v>3</v>
       </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
       <c r="N14" t="s">
         <v>322</v>
       </c>
@@ -5140,6 +7765,9 @@
       <c r="J15" t="s">
         <v>3</v>
       </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
       <c r="N15" t="s">
         <v>322</v>
       </c>
@@ -5169,6 +7797,9 @@
       <c r="J16" t="s">
         <v>3</v>
       </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
       <c r="N16" t="s">
         <v>322</v>
       </c>
@@ -5198,6 +7829,9 @@
       <c r="J17" t="s">
         <v>3</v>
       </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
       <c r="N17" t="s">
         <v>322</v>
       </c>
@@ -5227,6 +7861,9 @@
       <c r="J18" t="s">
         <v>3</v>
       </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
       <c r="N18" t="s">
         <v>322</v>
       </c>
@@ -5256,6 +7893,9 @@
       <c r="J19" t="s">
         <v>3</v>
       </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
       <c r="N19" t="s">
         <v>322</v>
       </c>
@@ -5285,6 +7925,9 @@
       <c r="J20" t="s">
         <v>3</v>
       </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
       <c r="N20" t="s">
         <v>322</v>
       </c>
@@ -5314,6 +7957,9 @@
       <c r="J21" t="s">
         <v>3</v>
       </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
       <c r="N21" t="s">
         <v>322</v>
       </c>
@@ -5343,6 +7989,9 @@
       <c r="J22" t="s">
         <v>3</v>
       </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
       <c r="N22" t="s">
         <v>322</v>
       </c>
@@ -5372,6 +8021,9 @@
       <c r="J23" t="s">
         <v>3</v>
       </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
       <c r="N23" t="s">
         <v>322</v>
       </c>
@@ -5401,6 +8053,9 @@
       <c r="J24" t="s">
         <v>3</v>
       </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
       <c r="N24" t="s">
         <v>322</v>
       </c>
@@ -5430,6 +8085,9 @@
       <c r="J25" t="s">
         <v>3</v>
       </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
       <c r="N25" t="s">
         <v>322</v>
       </c>
@@ -5459,6 +8117,9 @@
       <c r="J26" t="s">
         <v>3</v>
       </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
       <c r="N26" t="s">
         <v>322</v>
       </c>
@@ -5488,6 +8149,9 @@
       <c r="J27" t="s">
         <v>3</v>
       </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
       <c r="N27" t="s">
         <v>322</v>
       </c>
@@ -5517,6 +8181,9 @@
       <c r="J28" t="s">
         <v>3</v>
       </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
       <c r="N28" t="s">
         <v>322</v>
       </c>
@@ -5546,6 +8213,9 @@
       <c r="J29" t="s">
         <v>3</v>
       </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
       <c r="N29" t="s">
         <v>322</v>
       </c>
@@ -5575,6 +8245,9 @@
       <c r="J30" t="s">
         <v>3</v>
       </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
       <c r="N30" t="s">
         <v>322</v>
       </c>
@@ -5604,6 +8277,9 @@
       <c r="J31" t="s">
         <v>3</v>
       </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
       <c r="N31" t="s">
         <v>322</v>
       </c>
@@ -5612,6 +8288,646 @@
       </c>
       <c r="Q31" s="1" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D32" t="s">
+        <v>397</v>
+      </c>
+      <c r="E32" s="6">
+        <v>39821.027345088558</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>372</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" t="s">
+        <v>397</v>
+      </c>
+      <c r="E33" s="6">
+        <v>41050.027345088558</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>372</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>379</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D34" t="s">
+        <v>397</v>
+      </c>
+      <c r="E34" s="6">
+        <v>41077.027345088558</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>372</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D35" t="s">
+        <v>398</v>
+      </c>
+      <c r="E35" s="6">
+        <v>41050.027345088558</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>372</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>381</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D36" t="s">
+        <v>397</v>
+      </c>
+      <c r="E36" s="6">
+        <v>41077.027345088558</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>372</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D37" t="s">
+        <v>397</v>
+      </c>
+      <c r="E37" s="6">
+        <v>41050.027345088558</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>372</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>383</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D38" t="s">
+        <v>397</v>
+      </c>
+      <c r="E38" s="6">
+        <v>41077.027345088558</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>372</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>384</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D39" t="s">
+        <v>397</v>
+      </c>
+      <c r="E39" s="6">
+        <v>40808.027345088558</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>372</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D40" t="s">
+        <v>397</v>
+      </c>
+      <c r="E40" s="6">
+        <v>41741.027345088558</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>372</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D41" t="s">
+        <v>397</v>
+      </c>
+      <c r="E41" s="6">
+        <v>41741.027345088558</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>372</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>387</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E42" s="6">
+        <v>41741.027345088558</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>372</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>388</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D43" t="s">
+        <v>397</v>
+      </c>
+      <c r="E43" s="6">
+        <v>41741.027345088558</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>372</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>389</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D44" t="s">
+        <v>397</v>
+      </c>
+      <c r="E44" s="6">
+        <v>39691.027345088558</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>372</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>390</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D45" t="s">
+        <v>397</v>
+      </c>
+      <c r="E45" s="6">
+        <v>39808.027345088558</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>372</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>391</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D46" t="s">
+        <v>398</v>
+      </c>
+      <c r="E46" s="6">
+        <v>40103.027345088558</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>372</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>392</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D47" t="s">
+        <v>397</v>
+      </c>
+      <c r="E47" s="6">
+        <v>40181.027345088558</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>372</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>393</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D48" t="s">
+        <v>397</v>
+      </c>
+      <c r="E48" s="6">
+        <v>39808.027345088558</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>372</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>394</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D49" t="s">
+        <v>398</v>
+      </c>
+      <c r="E49" s="6">
+        <v>40103.027345088558</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>372</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>395</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D50" t="s">
+        <v>397</v>
+      </c>
+      <c r="E50" s="6">
+        <v>40181.027345088558</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>372</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>396</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D51" t="s">
+        <v>397</v>
+      </c>
+      <c r="E51" s="6">
+        <v>39808.027345088558</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>372</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -5622,10 +8938,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C48E7F-071C-C54F-87EF-63C9FFE2AF4E}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6557,6 +9874,466 @@
         <v>271</v>
       </c>
     </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>331</v>
+      </c>
+      <c r="B32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>372</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B33" t="s">
+        <v>378</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>372</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" t="s">
+        <v>379</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>372</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" t="s">
+        <v>380</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>372</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B36" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>372</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>372</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>372</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>372</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>372</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>372</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>354</v>
+      </c>
+      <c r="B43" t="s">
+        <v>388</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>372</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>356</v>
+      </c>
+      <c r="B44" t="s">
+        <v>389</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>372</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>358</v>
+      </c>
+      <c r="B45" t="s">
+        <v>390</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>372</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" t="s">
+        <v>391</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>372</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>362</v>
+      </c>
+      <c r="B47" t="s">
+        <v>392</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>372</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>364</v>
+      </c>
+      <c r="B48" t="s">
+        <v>393</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>372</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" t="s">
+        <v>394</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>372</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50" t="s">
+        <v>395</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B51" t="s">
+        <v>396</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>372</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6565,10 +10342,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6B4917-DB56-1043-ADC3-08CD8F6201F7}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6586,12 +10364,12 @@
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125"/>
-    <col min="16" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125"/>
+    <col min="17" max="18" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -6632,19 +10410,22 @@
         <v>255</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -6661,17 +10442,17 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
-        <v>322</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>271</v>
+      <c r="O2" t="s">
+        <v>322</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -6688,17 +10469,17 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" t="s">
-        <v>322</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>271</v>
+      <c r="O3" t="s">
+        <v>322</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -6715,17 +10496,17 @@
       <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" t="s">
-        <v>322</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>271</v>
+      <c r="O4" t="s">
+        <v>322</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -6742,17 +10523,17 @@
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="N5" t="s">
-        <v>322</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>271</v>
+      <c r="O5" t="s">
+        <v>322</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -6769,17 +10550,17 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="N6" t="s">
-        <v>322</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>271</v>
+      <c r="O6" t="s">
+        <v>322</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -6796,17 +10577,17 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="N7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>271</v>
+      <c r="O7" t="s">
+        <v>322</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -6823,17 +10604,17 @@
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="N8" t="s">
-        <v>322</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>271</v>
+      <c r="O8" t="s">
+        <v>322</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -6850,17 +10631,17 @@
       <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="N9" t="s">
-        <v>322</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>271</v>
+      <c r="O9" t="s">
+        <v>322</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -6877,17 +10658,17 @@
       <c r="G10" t="s">
         <v>6</v>
       </c>
-      <c r="N10" t="s">
-        <v>322</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>271</v>
+      <c r="O10" t="s">
+        <v>322</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -6904,17 +10685,17 @@
       <c r="G11" t="s">
         <v>6</v>
       </c>
-      <c r="N11" t="s">
-        <v>322</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>271</v>
+      <c r="O11" t="s">
+        <v>322</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -6930,17 +10711,17 @@
       <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="N12" t="s">
-        <v>322</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>271</v>
+      <c r="O12" t="s">
+        <v>322</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -6956,17 +10737,17 @@
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="N13" t="s">
-        <v>322</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>271</v>
+      <c r="O13" t="s">
+        <v>322</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -6982,17 +10763,17 @@
       <c r="G14" t="s">
         <v>6</v>
       </c>
-      <c r="N14" t="s">
-        <v>322</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>271</v>
+      <c r="O14" t="s">
+        <v>322</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -7008,17 +10789,17 @@
       <c r="G15" t="s">
         <v>6</v>
       </c>
-      <c r="N15" t="s">
-        <v>322</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>271</v>
+      <c r="O15" t="s">
+        <v>322</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -7034,17 +10815,17 @@
       <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="N16" t="s">
-        <v>322</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>271</v>
+      <c r="O16" t="s">
+        <v>322</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -7060,17 +10841,17 @@
       <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="N17" t="s">
-        <v>322</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>271</v>
+      <c r="O17" t="s">
+        <v>322</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -7086,17 +10867,17 @@
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="N18" t="s">
-        <v>322</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>271</v>
+      <c r="O18" t="s">
+        <v>322</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -7112,17 +10893,17 @@
       <c r="G19" t="s">
         <v>6</v>
       </c>
-      <c r="N19" t="s">
-        <v>322</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>271</v>
+      <c r="O19" t="s">
+        <v>322</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -7138,17 +10919,17 @@
       <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="N20" t="s">
-        <v>322</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>271</v>
+      <c r="O20" t="s">
+        <v>322</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -7164,17 +10945,17 @@
       <c r="G21" t="s">
         <v>6</v>
       </c>
-      <c r="N21" t="s">
-        <v>322</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>271</v>
+      <c r="O21" t="s">
+        <v>322</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -7190,17 +10971,17 @@
       <c r="G22" t="s">
         <v>6</v>
       </c>
-      <c r="N22" t="s">
-        <v>322</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>271</v>
+      <c r="O22" t="s">
+        <v>322</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -7216,17 +10997,17 @@
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="N23" t="s">
-        <v>322</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>271</v>
+      <c r="O23" t="s">
+        <v>322</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -7242,17 +11023,17 @@
       <c r="G24" t="s">
         <v>6</v>
       </c>
-      <c r="N24" t="s">
-        <v>322</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>271</v>
+      <c r="O24" t="s">
+        <v>322</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -7268,17 +11049,17 @@
       <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="N25" t="s">
-        <v>322</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>271</v>
+      <c r="O25" t="s">
+        <v>322</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -7294,17 +11075,17 @@
       <c r="G26" t="s">
         <v>6</v>
       </c>
-      <c r="N26" t="s">
-        <v>322</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>271</v>
+      <c r="O26" t="s">
+        <v>322</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -7320,17 +11101,17 @@
       <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="N27" t="s">
-        <v>322</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>271</v>
+      <c r="O27" t="s">
+        <v>322</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -7346,17 +11127,17 @@
       <c r="G28" t="s">
         <v>6</v>
       </c>
-      <c r="N28" t="s">
-        <v>322</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>271</v>
+      <c r="O28" t="s">
+        <v>322</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -7372,17 +11153,17 @@
       <c r="G29" t="s">
         <v>6</v>
       </c>
-      <c r="N29" t="s">
-        <v>322</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>271</v>
+      <c r="O29" t="s">
+        <v>322</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -7398,17 +11179,17 @@
       <c r="G30" t="s">
         <v>6</v>
       </c>
-      <c r="N30" t="s">
-        <v>322</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>271</v>
+      <c r="O30" t="s">
+        <v>322</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -7424,14 +11205,654 @@
       <c r="G31" t="s">
         <v>6</v>
       </c>
-      <c r="N31" t="s">
-        <v>322</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>271</v>
+      <c r="O31" t="s">
+        <v>322</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>271</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>439</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" t="s">
+        <v>533</v>
+      </c>
+      <c r="O32" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>440</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" t="s">
+        <v>533</v>
+      </c>
+      <c r="O33" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>440</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" t="s">
+        <v>533</v>
+      </c>
+      <c r="O34" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>337</v>
+      </c>
+      <c r="B35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>439</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" t="s">
+        <v>533</v>
+      </c>
+      <c r="O35" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>439</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" t="s">
+        <v>533</v>
+      </c>
+      <c r="O36" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>341</v>
+      </c>
+      <c r="B37" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>439</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" t="s">
+        <v>533</v>
+      </c>
+      <c r="O37" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>440</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" t="s">
+        <v>533</v>
+      </c>
+      <c r="O38" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" t="s">
+        <v>346</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>439</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" t="s">
+        <v>533</v>
+      </c>
+      <c r="O39" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" t="s">
+        <v>348</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>440</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" t="s">
+        <v>533</v>
+      </c>
+      <c r="O40" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>439</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" t="s">
+        <v>533</v>
+      </c>
+      <c r="O41" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" t="s">
+        <v>352</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>440</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" t="s">
+        <v>533</v>
+      </c>
+      <c r="O42" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>440</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" t="s">
+        <v>533</v>
+      </c>
+      <c r="O43" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>439</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" t="s">
+        <v>533</v>
+      </c>
+      <c r="O44" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>357</v>
+      </c>
+      <c r="B45" t="s">
+        <v>358</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>439</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="N45" t="s">
+        <v>533</v>
+      </c>
+      <c r="O45" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B46" t="s">
+        <v>360</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>439</v>
+      </c>
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46" t="s">
+        <v>533</v>
+      </c>
+      <c r="O46" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B47" t="s">
+        <v>362</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>439</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" t="s">
+        <v>533</v>
+      </c>
+      <c r="O47" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B48" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>441</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="N48" t="s">
+        <v>533</v>
+      </c>
+      <c r="O48" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" t="s">
+        <v>366</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>440</v>
+      </c>
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" t="s">
+        <v>533</v>
+      </c>
+      <c r="O49" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>367</v>
+      </c>
+      <c r="B50" t="s">
+        <v>368</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>439</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" t="s">
+        <v>533</v>
+      </c>
+      <c r="O50" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>369</v>
+      </c>
+      <c r="B51" t="s">
+        <v>370</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>440</v>
+      </c>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" t="s">
+        <v>533</v>
+      </c>
+      <c r="O51" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/data/demo/urdm_demo.xlsx
+++ b/data/demo/urdm_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/rd-datamodel/data/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24669BF3-808B-934F-8007-45E11BC370B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A78DA5-A718-7445-8F16-FF6FA507F969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="urdm_lookups_organization" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="536">
   <si>
     <t>ancestry</t>
   </si>
@@ -1358,15 +1358,6 @@
     <t>Req-6019</t>
   </si>
   <si>
-    <t>NextSeq sequencer 2</t>
-  </si>
-  <si>
-    <t>NextSeq sequencer 1</t>
-  </si>
-  <si>
-    <t>MiSeq sequencer 2</t>
-  </si>
-  <si>
     <t>ClinicalID-90</t>
   </si>
   <si>
@@ -1535,9 +1526,6 @@
     <t>Family12364</t>
   </si>
   <si>
-    <t>alive</t>
-  </si>
-  <si>
     <t>HP:0002650,HP:0000767</t>
   </si>
   <si>
@@ -1631,9 +1619,6 @@
     <t>male</t>
   </si>
   <si>
-    <t>deceased</t>
-  </si>
-  <si>
     <t>HP:0002463,HP:0010864</t>
   </si>
   <si>
@@ -1644,6 +1629,24 @@
   </si>
   <si>
     <t>CV-1009,CV-1010,CV-1019</t>
+  </si>
+  <si>
+    <t>Illumina NextSeq 1000</t>
+  </si>
+  <si>
+    <t>Illumina NextSeq 2000</t>
+  </si>
+  <si>
+    <t>MiSeq</t>
+  </si>
+  <si>
+    <t>Alive</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Unknown (UNK, nullflavor)</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1654,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\Thh:mm:dd:ss\Z"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\Thh:mm:dd:ss\Z"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1709,7 +1712,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2168,9 +2171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2208,25 +2211,25 @@
         <v>274</v>
       </c>
       <c r="C1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F1" t="s">
         <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H1" t="s">
         <v>165</v>
       </c>
       <c r="I1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J1" t="s">
         <v>167</v>
@@ -2250,25 +2253,25 @@
         <v>168</v>
       </c>
       <c r="Q1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="R1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S1" t="s">
         <v>232</v>
       </c>
       <c r="T1" t="s">
+        <v>471</v>
+      </c>
+      <c r="U1" t="s">
+        <v>472</v>
+      </c>
+      <c r="V1" t="s">
+        <v>473</v>
+      </c>
+      <c r="W1" t="s">
         <v>474</v>
-      </c>
-      <c r="U1" t="s">
-        <v>475</v>
-      </c>
-      <c r="V1" t="s">
-        <v>476</v>
-      </c>
-      <c r="W1" t="s">
-        <v>477</v>
       </c>
       <c r="X1" t="s">
         <v>169</v>
@@ -2297,7 +2300,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G2" s="5"/>
       <c r="N2" t="s">
@@ -2330,7 +2333,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G3" s="5"/>
       <c r="N3" t="s">
@@ -2363,7 +2366,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G4" s="5"/>
       <c r="N4" t="s">
@@ -2396,7 +2399,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G5" s="5"/>
       <c r="N5" t="s">
@@ -2429,7 +2432,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G6" s="5"/>
       <c r="N6" t="s">
@@ -2462,7 +2465,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G7" s="5"/>
       <c r="N7" t="s">
@@ -2495,7 +2498,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G8" s="5"/>
       <c r="N8" t="s">
@@ -2528,7 +2531,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G9" s="5"/>
       <c r="N9" t="s">
@@ -2561,7 +2564,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G10" s="5"/>
       <c r="N10" t="s">
@@ -2594,7 +2597,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G11" s="5"/>
       <c r="N11" t="s">
@@ -2627,7 +2630,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G12" s="5"/>
       <c r="N12" t="s">
@@ -2660,7 +2663,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G13" s="5"/>
       <c r="N13" t="s">
@@ -2693,7 +2696,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G14" s="5"/>
       <c r="N14" t="s">
@@ -2726,7 +2729,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G15" s="5"/>
       <c r="N15" t="s">
@@ -2759,7 +2762,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G16" s="5"/>
       <c r="N16" t="s">
@@ -2792,7 +2795,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G17" s="5"/>
       <c r="N17" t="s">
@@ -2825,7 +2828,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G18" s="5"/>
       <c r="N18" t="s">
@@ -2858,7 +2861,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G19" s="5"/>
       <c r="N19" t="s">
@@ -2891,7 +2894,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G20" s="5"/>
       <c r="N20" t="s">
@@ -2924,7 +2927,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G21" s="5"/>
       <c r="N21" t="s">
@@ -2957,7 +2960,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G22" s="5"/>
       <c r="N22" t="s">
@@ -2990,7 +2993,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G23" s="5"/>
       <c r="N23" t="s">
@@ -3023,7 +3026,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G24" s="5"/>
       <c r="N24" t="s">
@@ -3056,7 +3059,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G25" s="5"/>
       <c r="N25" t="s">
@@ -3089,7 +3092,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G26" s="5"/>
       <c r="N26" t="s">
@@ -3122,7 +3125,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G27" s="5"/>
       <c r="N27" t="s">
@@ -3155,7 +3158,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G28" s="5"/>
       <c r="N28" t="s">
@@ -3188,7 +3191,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G29" s="5"/>
       <c r="N29" t="s">
@@ -3221,7 +3224,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G30" s="5"/>
       <c r="N30" t="s">
@@ -3254,7 +3257,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="G31" s="5"/>
       <c r="N31" t="s">
@@ -3281,13 +3284,13 @@
         <v>399</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F32" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K32" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N32" t="s">
         <v>327</v>
@@ -3319,13 +3322,13 @@
         <v>400</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F33" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K33" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N33" t="s">
         <v>327</v>
@@ -3357,7 +3360,7 @@
         <v>401</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C34" t="s">
         <v>408</v>
@@ -3366,13 +3369,13 @@
         <v>409</v>
       </c>
       <c r="E34" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F34" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K34" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N34" t="s">
         <v>327</v>
@@ -3404,13 +3407,13 @@
         <v>402</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F35" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K35" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N35" t="s">
         <v>327</v>
@@ -3442,13 +3445,13 @@
         <v>403</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F36" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K36" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N36" t="s">
         <v>327</v>
@@ -3480,13 +3483,13 @@
         <v>404</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F37" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K37" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N37" t="s">
         <v>327</v>
@@ -3518,13 +3521,13 @@
         <v>405</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F38" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K38" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N38" t="s">
         <v>327</v>
@@ -3556,13 +3559,13 @@
         <v>406</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F39" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K39" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N39" t="s">
         <v>327</v>
@@ -3594,13 +3597,13 @@
         <v>407</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F40" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K40" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N40" t="s">
         <v>327</v>
@@ -3632,13 +3635,13 @@
         <v>408</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F41" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K41" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N41" t="s">
         <v>327</v>
@@ -3670,13 +3673,13 @@
         <v>409</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F42" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K42" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N42" t="s">
         <v>327</v>
@@ -3708,13 +3711,13 @@
         <v>410</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F43" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K43" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N43" t="s">
         <v>327</v>
@@ -3746,13 +3749,13 @@
         <v>411</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F44" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K44" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N44" t="s">
         <v>327</v>
@@ -3784,13 +3787,13 @@
         <v>412</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F45" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K45" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N45" t="s">
         <v>327</v>
@@ -3822,13 +3825,13 @@
         <v>413</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F46" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K46" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N46" t="s">
         <v>327</v>
@@ -3860,13 +3863,13 @@
         <v>414</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F47" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K47" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N47" t="s">
         <v>327</v>
@@ -3898,13 +3901,13 @@
         <v>415</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F48" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K48" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N48" t="s">
         <v>327</v>
@@ -3936,13 +3939,13 @@
         <v>416</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F49" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K49" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N49" t="s">
         <v>327</v>
@@ -3974,10 +3977,10 @@
         <v>417</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F50" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="I50" s="3">
         <v>401404</v>
@@ -3986,7 +3989,7 @@
         <v>123.56</v>
       </c>
       <c r="K50" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N50" t="s">
         <v>327</v>
@@ -4018,13 +4021,13 @@
         <v>418</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F51" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="K51" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N51" t="s">
         <v>327</v>
@@ -4206,7 +4209,7 @@
         <v>372</v>
       </c>
       <c r="N3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>371</v>
@@ -4224,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E550A-B266-5145-AE42-588A1CF08EAB}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="113" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5164,7 +5167,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>399</v>
@@ -5187,7 +5190,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>400</v>
@@ -5210,7 +5213,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>401</v>
@@ -5233,7 +5236,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>402</v>
@@ -5256,7 +5259,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>403</v>
@@ -5279,7 +5282,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>404</v>
@@ -5302,7 +5305,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>405</v>
@@ -5325,7 +5328,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>406</v>
@@ -5348,7 +5351,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>407</v>
@@ -5371,7 +5374,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>408</v>
@@ -5394,7 +5397,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>409</v>
@@ -5417,7 +5420,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>410</v>
@@ -5440,7 +5443,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>411</v>
@@ -5463,7 +5466,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>412</v>
@@ -5486,7 +5489,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>413</v>
@@ -5509,7 +5512,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>414</v>
@@ -5532,7 +5535,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>415</v>
@@ -5555,7 +5558,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>416</v>
@@ -5578,7 +5581,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>417</v>
@@ -5601,7 +5604,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>418</v>
@@ -6737,7 +6740,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>399</v>
@@ -6760,7 +6763,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>400</v>
@@ -6769,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="O33" t="s">
         <v>378</v>
@@ -6786,7 +6789,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>401</v>
@@ -6795,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="O34" t="s">
         <v>379</v>
@@ -6812,7 +6815,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>402</v>
@@ -6821,13 +6824,13 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H35" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I35" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="O35" t="s">
         <v>380</v>
@@ -6844,7 +6847,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>403</v>
@@ -6867,7 +6870,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>404</v>
@@ -6890,7 +6893,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>405</v>
@@ -6899,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="O38" t="s">
         <v>383</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>406</v>
@@ -6939,7 +6942,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>407</v>
@@ -6948,13 +6951,13 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H40" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I40" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O40" t="s">
         <v>385</v>
@@ -6971,7 +6974,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>408</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>409</v>
@@ -7003,10 +7006,10 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H42" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="O42" t="s">
         <v>387</v>
@@ -7023,7 +7026,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>410</v>
@@ -7046,7 +7049,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>411</v>
@@ -7069,7 +7072,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>412</v>
@@ -7078,10 +7081,10 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H45" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="O45" t="s">
         <v>390</v>
@@ -7098,7 +7101,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>413</v>
@@ -7107,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="O46" t="s">
         <v>391</v>
@@ -7124,7 +7127,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>414</v>
@@ -7133,10 +7136,10 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H47" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="O47" t="s">
         <v>392</v>
@@ -7153,7 +7156,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>415</v>
@@ -7176,7 +7179,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>416</v>
@@ -7199,7 +7202,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>417</v>
@@ -7222,7 +7225,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>418</v>
@@ -7254,7 +7257,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8942,7 +8945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10344,9 +10347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6B4917-DB56-1043-ADC3-08CD8F6201F7}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10410,7 +10413,7 @@
         <v>255</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>325</v>
@@ -11229,13 +11232,13 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
       </c>
       <c r="N32" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O32" t="s">
         <v>372</v>
@@ -11261,13 +11264,13 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
       </c>
       <c r="N33" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O33" t="s">
         <v>372</v>
@@ -11293,13 +11296,13 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
       </c>
       <c r="N34" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O34" t="s">
         <v>372</v>
@@ -11325,13 +11328,13 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G35" t="s">
         <v>6</v>
       </c>
       <c r="N35" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O35" t="s">
         <v>372</v>
@@ -11357,13 +11360,13 @@
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G36" t="s">
         <v>6</v>
       </c>
       <c r="N36" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O36" t="s">
         <v>372</v>
@@ -11389,13 +11392,13 @@
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G37" t="s">
         <v>6</v>
       </c>
       <c r="N37" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O37" t="s">
         <v>372</v>
@@ -11421,13 +11424,13 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="G38" t="s">
         <v>6</v>
       </c>
       <c r="N38" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O38" t="s">
         <v>372</v>
@@ -11453,13 +11456,13 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G39" t="s">
         <v>6</v>
       </c>
       <c r="N39" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O39" t="s">
         <v>372</v>
@@ -11485,13 +11488,13 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="G40" t="s">
         <v>6</v>
       </c>
       <c r="N40" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O40" t="s">
         <v>372</v>
@@ -11517,13 +11520,13 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G41" t="s">
         <v>6</v>
       </c>
       <c r="N41" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O41" t="s">
         <v>372</v>
@@ -11549,13 +11552,13 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="G42" t="s">
         <v>6</v>
       </c>
       <c r="N42" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O42" t="s">
         <v>372</v>
@@ -11581,13 +11584,13 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
       </c>
       <c r="N43" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O43" t="s">
         <v>372</v>
@@ -11613,13 +11616,13 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G44" t="s">
         <v>6</v>
       </c>
       <c r="N44" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O44" t="s">
         <v>372</v>
@@ -11645,13 +11648,13 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G45" t="s">
         <v>6</v>
       </c>
       <c r="N45" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O45" t="s">
         <v>372</v>
@@ -11677,13 +11680,13 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G46" t="s">
         <v>6</v>
       </c>
       <c r="N46" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O46" t="s">
         <v>372</v>
@@ -11709,13 +11712,13 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G47" t="s">
         <v>6</v>
       </c>
       <c r="N47" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O47" t="s">
         <v>372</v>
@@ -11741,13 +11744,13 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>441</v>
+        <v>532</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
       </c>
       <c r="N48" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O48" t="s">
         <v>372</v>
@@ -11773,13 +11776,13 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="G49" t="s">
         <v>6</v>
       </c>
       <c r="N49" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O49" t="s">
         <v>372</v>
@@ -11805,13 +11808,13 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="G50" t="s">
         <v>6</v>
       </c>
       <c r="N50" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O50" t="s">
         <v>372</v>
@@ -11837,13 +11840,13 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="G51" t="s">
         <v>6</v>
       </c>
       <c r="N51" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="O51" t="s">
         <v>372</v>
